--- a/Data/EC/NIT-9008081589.xlsx
+++ b/Data/EC/NIT-9008081589.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AD758AD-4BF2-4C08-9F3A-F262778510D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{553F36E6-3530-4F60-A60B-2AD407BAA315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{11599101-82E1-49CD-A2BF-0CB6DDFB4F74}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3DC6FA94-DE04-450D-ABBB-E483C3AFF8E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,103 +71,103 @@
     <t>ROBERTO CARLOS LOPEZ TOUS</t>
   </si>
   <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1705</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -266,7 +266,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -279,9 +281,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -481,23 +481,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,10 +525,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,7 +581,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56D9C758-0ADB-09FC-DAC4-063712B813F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73EEEA92-FA47-25C4-6400-EAAFB81E8030}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,7 +932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A53D4EF-C109-4CB9-A6AF-61EB74CFDBB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9863006F-0D1D-4A73-BDF9-1851F46A230A}">
   <dimension ref="B2:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1110,10 +1110,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1133,10 +1133,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1156,10 +1156,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1179,10 +1179,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1202,10 +1202,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1225,10 +1225,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1248,10 +1248,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1271,10 +1271,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1294,10 +1294,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1317,10 +1317,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1340,10 +1340,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1363,10 +1363,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1386,10 +1386,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1409,10 +1409,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1435,7 +1435,7 @@
         <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1458,7 +1458,7 @@
         <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1481,7 +1481,7 @@
         <v>31249</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1504,7 +1504,7 @@
         <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1527,7 +1527,7 @@
         <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1547,10 +1547,10 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1570,10 +1570,10 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1593,10 +1593,10 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1616,10 +1616,10 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1639,10 +1639,10 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1662,10 +1662,10 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1685,10 +1685,10 @@
         <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1708,10 +1708,10 @@
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1731,10 +1731,10 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1754,10 +1754,10 @@
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1777,10 +1777,10 @@
         <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1800,10 +1800,10 @@
         <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1823,10 +1823,10 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1846,10 +1846,10 @@
         <v>43</v>
       </c>
       <c r="F48" s="24">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="24">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
